--- a/data/USFWS_bull_trout_SSA_data_ID_Sawtooth.xlsx
+++ b/data/USFWS_bull_trout_SSA_data_ID_Sawtooth.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbowersox\Desktop\Bull Trout IPA\SSA Data Compilation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scheuerl/Documents/GitHub/bulltrout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C289B-2581-E441-8240-EC1C4D779F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="11400" yWindow="5060" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="15">
   <si>
-    <t>dataset #</t>
-  </si>
-  <si>
     <t>recovery unit</t>
   </si>
   <si>
@@ -69,12 +67,15 @@
   </si>
   <si>
     <t>Hatchery weir operated at Sawtooth Fish Hatchery. Weir is operated to collect spring/summer Chinook for the hatchery program. However, BT are caught at the facility. Operations have been consistent across the dataseries.</t>
+  </si>
+  <si>
+    <t>dataset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,66 +395,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2009</v>
@@ -462,24 +463,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2010</v>
@@ -488,24 +489,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2011</v>
@@ -514,24 +515,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2012</v>
@@ -540,24 +541,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2013</v>
@@ -566,24 +567,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2014</v>
@@ -592,24 +593,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2015</v>
@@ -618,24 +619,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>2016</v>
@@ -644,24 +645,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>2017</v>
@@ -670,24 +671,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>2018</v>
@@ -696,24 +697,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>2019</v>
@@ -722,24 +723,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>2020</v>
@@ -748,12 +749,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
